--- a/Data Exploration/Datasets/DisabledPop.xlsx
+++ b/Data Exploration/Datasets/DisabledPop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A\Xingrui_ACS5_EMPLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35F493-D261-4F2E-9C9C-221897999EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94DB823-CC1F-4263-9707-494EA3BA9098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="136">
   <si>
     <t>County</t>
   </si>
@@ -410,6 +410,39 @@
   <si>
     <t>Disabled Adult Pct</t>
   </si>
+  <si>
+    <t>CV_18_to_34_Disabled</t>
+  </si>
+  <si>
+    <t>Low reliability</t>
+  </si>
+  <si>
+    <t>Median reliability</t>
+  </si>
+  <si>
+    <t>High reliability</t>
+  </si>
+  <si>
+    <t>CV_35_to_64_Disabled</t>
+  </si>
+  <si>
+    <t>CV_Under5</t>
+  </si>
+  <si>
+    <t>CV_5to17</t>
+  </si>
+  <si>
+    <t>CV_18to34</t>
+  </si>
+  <si>
+    <t>CV_35to64</t>
+  </si>
+  <si>
+    <t>CV_65to74</t>
+  </si>
+  <si>
+    <t>CV_75andOver</t>
+  </si>
 </sst>
 </file>
 
@@ -761,14 +794,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="5" width="11.5546875" style="2"/>
     <col min="7" max="7" width="11.5546875" style="1"/>
     <col min="11" max="11" width="11.5546875" style="1"/>
@@ -776,7 +810,7 @@
     <col min="17" max="17" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,8 +886,26 @@
       <c r="Y1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -938,8 +990,26 @@
       <c r="Y2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1024,8 +1094,26 @@
       <c r="Y3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1110,8 +1198,26 @@
       <c r="Y4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1196,8 +1302,26 @@
       <c r="Y5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1282,8 +1406,26 @@
       <c r="Y6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1368,8 +1510,26 @@
       <c r="Y7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1454,8 +1614,26 @@
       <c r="Y8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1540,8 +1718,26 @@
       <c r="Y9">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1626,8 +1822,26 @@
       <c r="Y10">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1712,8 +1926,26 @@
       <c r="Y11">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +2030,26 @@
       <c r="Y12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1884,8 +2134,26 @@
       <c r="Y13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1970,8 +2238,26 @@
       <c r="Y14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2056,8 +2342,26 @@
       <c r="Y15">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2142,8 +2446,26 @@
       <c r="Y16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2228,8 +2550,26 @@
       <c r="Y17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2314,8 +2654,26 @@
       <c r="Y18">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2400,8 +2758,26 @@
       <c r="Y19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2486,8 +2862,26 @@
       <c r="Y20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2572,8 +2966,26 @@
       <c r="Y21">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2658,8 +3070,26 @@
       <c r="Y22">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2744,8 +3174,26 @@
       <c r="Y23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2830,8 +3278,26 @@
       <c r="Y24">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2916,8 +3382,26 @@
       <c r="Y25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3002,8 +3486,26 @@
       <c r="Y26">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3088,8 +3590,26 @@
       <c r="Y27">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3174,8 +3694,26 @@
       <c r="Y28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3260,8 +3798,26 @@
       <c r="Y29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3346,8 +3902,26 @@
       <c r="Y30">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3432,8 +4006,26 @@
       <c r="Y31">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3518,8 +4110,26 @@
       <c r="Y32">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3604,8 +4214,26 @@
       <c r="Y33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3690,8 +4318,26 @@
       <c r="Y34">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3776,8 +4422,26 @@
       <c r="Y35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3862,8 +4526,26 @@
       <c r="Y36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3948,8 +4630,26 @@
       <c r="Y37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -4034,8 +4734,26 @@
       <c r="Y38">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -4120,8 +4838,26 @@
       <c r="Y39">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -4206,8 +4942,26 @@
       <c r="Y40">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -4292,8 +5046,26 @@
       <c r="Y41">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -4378,8 +5150,26 @@
       <c r="Y42">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -4464,8 +5254,26 @@
       <c r="Y43">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -4550,8 +5358,26 @@
       <c r="Y44">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -4636,8 +5462,26 @@
       <c r="Y45">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4722,8 +5566,26 @@
       <c r="Y46">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -4808,8 +5670,26 @@
       <c r="Y47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4894,8 +5774,26 @@
       <c r="Y48">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -4980,8 +5878,26 @@
       <c r="Y49">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -5066,8 +5982,26 @@
       <c r="Y50">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -5152,8 +6086,26 @@
       <c r="Y51">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -5238,8 +6190,26 @@
       <c r="Y52">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -5324,8 +6294,26 @@
       <c r="Y53">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5410,8 +6398,26 @@
       <c r="Y54">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -5496,8 +6502,26 @@
       <c r="Y55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -5582,8 +6606,26 @@
       <c r="Y56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -5668,8 +6710,26 @@
       <c r="Y57">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z57" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -5754,8 +6814,26 @@
       <c r="Y58">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -5840,8 +6918,26 @@
       <c r="Y59">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -5926,8 +7022,26 @@
       <c r="Y60">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -6012,8 +7126,26 @@
       <c r="Y61">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -6098,8 +7230,26 @@
       <c r="Y62">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6184,8 +7334,26 @@
       <c r="Y63">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6270,8 +7438,26 @@
       <c r="Y64">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6356,8 +7542,26 @@
       <c r="Y65">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6442,8 +7646,26 @@
       <c r="Y66">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z66" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6528,8 +7750,26 @@
       <c r="Y67">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -6614,8 +7854,26 @@
       <c r="Y68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -6700,8 +7958,26 @@
       <c r="Y69">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -6786,8 +8062,26 @@
       <c r="Y70">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6872,8 +8166,26 @@
       <c r="Y71">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -6958,8 +8270,26 @@
       <c r="Y72">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z72" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7044,8 +8374,26 @@
       <c r="Y73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7130,8 +8478,26 @@
       <c r="Y74">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7216,8 +8582,26 @@
       <c r="Y75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z75" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7302,8 +8686,26 @@
       <c r="Y76">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7388,8 +8790,26 @@
       <c r="Y77">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z77" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -7474,8 +8894,26 @@
       <c r="Y78">
         <v>197</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z78" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -7560,8 +8998,26 @@
       <c r="Y79">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -7646,8 +9102,26 @@
       <c r="Y80">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z80" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -7732,8 +9206,26 @@
       <c r="Y81">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z81" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -7818,8 +9310,26 @@
       <c r="Y82">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -7904,8 +9414,26 @@
       <c r="Y83">
         <v>59</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z83" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -7990,8 +9518,26 @@
       <c r="Y84">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z84" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -8076,8 +9622,26 @@
       <c r="Y85">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z85" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -8162,8 +9726,26 @@
       <c r="Y86">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z86" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8248,8 +9830,26 @@
       <c r="Y87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z87" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -8334,8 +9934,26 @@
       <c r="Y88">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z88" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -8420,8 +10038,26 @@
       <c r="Y89">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z89" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -8506,8 +10142,26 @@
       <c r="Y90">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z90" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8592,8 +10246,26 @@
       <c r="Y91">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z91" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -8678,8 +10350,26 @@
       <c r="Y92">
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z92" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -8764,8 +10454,26 @@
       <c r="Y93">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -8850,8 +10558,26 @@
       <c r="Y94">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -8936,8 +10662,26 @@
       <c r="Y95">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z95" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -9022,8 +10766,26 @@
       <c r="Y96">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -9108,8 +10870,26 @@
       <c r="Y97">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z97" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -9194,8 +10974,26 @@
       <c r="Y98">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z98" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -9280,8 +11078,26 @@
       <c r="Y99">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -9365,6 +11181,24 @@
       </c>
       <c r="Y100">
         <v>32</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -9375,11 +11209,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8633E9C-FFE3-416F-B8F5-9046DC0E219A}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C100"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9387,9 +11219,10 @@
     <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9411,8 +11244,14 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9437,8 +11276,14 @@
       <c r="G2">
         <v>465</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9463,8 +11308,14 @@
       <c r="G3">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9489,8 +11340,14 @@
       <c r="G4">
         <v>415</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9515,8 +11372,14 @@
       <c r="G5">
         <v>896</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9541,8 +11404,14 @@
       <c r="G6">
         <v>310</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9567,8 +11436,14 @@
       <c r="G7">
         <v>895</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9593,8 +11468,14 @@
       <c r="G8">
         <v>6444</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9619,8 +11500,14 @@
       <c r="G9">
         <v>1235</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9645,8 +11532,14 @@
       <c r="G10">
         <v>801</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -9671,8 +11564,14 @@
       <c r="G11">
         <v>866</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -9697,8 +11596,14 @@
       <c r="G12">
         <v>636</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -9723,8 +11628,14 @@
       <c r="G13">
         <v>560</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -9749,8 +11660,14 @@
       <c r="G14">
         <v>405</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9775,8 +11692,14 @@
       <c r="G15">
         <v>857</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -9801,8 +11724,14 @@
       <c r="G16">
         <v>541</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -9827,8 +11756,14 @@
       <c r="G17">
         <v>749</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -9853,8 +11788,14 @@
       <c r="G18">
         <v>2269</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -9879,8 +11820,14 @@
       <c r="G19">
         <v>460</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9905,8 +11852,14 @@
       <c r="G20">
         <v>587</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -9931,8 +11884,14 @@
       <c r="G21">
         <v>926</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -9957,8 +11916,14 @@
       <c r="G22">
         <v>768</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -9983,8 +11948,14 @@
       <c r="G23">
         <v>921</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -10009,8 +11980,14 @@
       <c r="G24">
         <v>2342</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -10035,8 +12012,14 @@
       <c r="G25">
         <v>904</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -10061,8 +12044,14 @@
       <c r="G26">
         <v>2463</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -10087,8 +12076,14 @@
       <c r="G27">
         <v>276</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -10113,8 +12108,14 @@
       <c r="G28">
         <v>368</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -10139,8 +12140,14 @@
       <c r="G29">
         <v>548</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -10165,8 +12172,14 @@
       <c r="G30">
         <v>2080</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -10191,8 +12204,14 @@
       <c r="G31">
         <v>889</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -10217,8 +12236,14 @@
       <c r="G32">
         <v>3622</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -10243,8 +12268,14 @@
       <c r="G33">
         <v>466</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -10269,8 +12300,14 @@
       <c r="G34">
         <v>1138</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -10295,8 +12332,14 @@
       <c r="G35">
         <v>722</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -10321,8 +12364,14 @@
       <c r="G36">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -10347,8 +12396,14 @@
       <c r="G37">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -10373,8 +12428,14 @@
       <c r="G38">
         <v>482</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -10399,8 +12460,14 @@
       <c r="G39">
         <v>322</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -10425,8 +12492,14 @@
       <c r="G40">
         <v>367</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -10451,8 +12524,14 @@
       <c r="G41">
         <v>708</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -10477,8 +12556,14 @@
       <c r="G42">
         <v>529</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -10503,8 +12588,14 @@
       <c r="G43">
         <v>675</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -10529,8 +12620,14 @@
       <c r="G44">
         <v>626</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -10555,8 +12652,14 @@
       <c r="G45">
         <v>1133</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -10581,8 +12684,14 @@
       <c r="G46">
         <v>259</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -10607,8 +12716,14 @@
       <c r="G47">
         <v>596</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -10633,8 +12748,14 @@
       <c r="G48">
         <v>240</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -10659,8 +12780,14 @@
       <c r="G49">
         <v>596</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -10685,8 +12812,14 @@
       <c r="G50">
         <v>645</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -10711,8 +12844,14 @@
       <c r="G51">
         <v>1675</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -10737,8 +12876,14 @@
       <c r="G52">
         <v>1057</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -10763,8 +12908,14 @@
       <c r="G53">
         <v>3452</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -10789,8 +12940,14 @@
       <c r="G54">
         <v>705</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10815,8 +12972,14 @@
       <c r="G55">
         <v>594</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -10841,8 +13004,14 @@
       <c r="G56">
         <v>935</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -10867,8 +13036,14 @@
       <c r="G57">
         <v>2193</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -10893,8 +13068,14 @@
       <c r="G58">
         <v>7307</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -10919,8 +13100,14 @@
       <c r="G59">
         <v>352</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -10945,8 +13132,14 @@
       <c r="G60">
         <v>532</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -10971,8 +13164,14 @@
       <c r="G61">
         <v>458</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -10997,8 +13196,14 @@
       <c r="G62">
         <v>446</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -11023,8 +13228,14 @@
       <c r="G63">
         <v>939</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -11049,8 +13260,14 @@
       <c r="G64">
         <v>1867</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -11075,8 +13292,14 @@
       <c r="G65">
         <v>1642</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -11101,8 +13324,14 @@
       <c r="G66">
         <v>966</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -11127,8 +13356,14 @@
       <c r="G67">
         <v>410</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -11153,8 +13388,14 @@
       <c r="G68">
         <v>486</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -11179,8 +13420,14 @@
       <c r="G69">
         <v>397</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -11205,8 +13452,14 @@
       <c r="G70">
         <v>428</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11231,8 +13484,14 @@
       <c r="G71">
         <v>1651</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>127</v>
+      </c>
+      <c r="I71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -11257,8 +13516,14 @@
       <c r="G72">
         <v>718</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -11283,8 +13548,14 @@
       <c r="G73">
         <v>279</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11309,8 +13580,14 @@
       <c r="G74">
         <v>707</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -11335,8 +13612,14 @@
       <c r="G75">
         <v>504</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11361,8 +13644,14 @@
       <c r="G76">
         <v>994</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -11387,8 +13676,14 @@
       <c r="G77">
         <v>344</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>126</v>
+      </c>
+      <c r="I77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -11413,8 +13708,14 @@
       <c r="G78">
         <v>20645</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -11439,8 +13740,14 @@
       <c r="G79">
         <v>5621</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -11465,8 +13772,14 @@
       <c r="G80">
         <v>618</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -11491,8 +13804,14 @@
       <c r="G81">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -11517,8 +13836,14 @@
       <c r="G82">
         <v>329</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -11543,8 +13868,14 @@
       <c r="G83">
         <v>7019</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -11569,8 +13900,14 @@
       <c r="G84">
         <v>418</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -11595,8 +13932,14 @@
       <c r="G85">
         <v>863</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>127</v>
+      </c>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -11621,8 +13964,14 @@
       <c r="G86">
         <v>2234</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>127</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -11647,8 +13996,14 @@
       <c r="G87">
         <v>550</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>127</v>
+      </c>
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -11673,8 +14028,14 @@
       <c r="G88">
         <v>318</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -11699,8 +14060,14 @@
       <c r="G89">
         <v>862</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -11725,8 +14092,14 @@
       <c r="G90">
         <v>424</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -11751,8 +14124,14 @@
       <c r="G91">
         <v>2147</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>127</v>
+      </c>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -11777,8 +14156,14 @@
       <c r="G92">
         <v>1953</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>127</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -11803,8 +14188,14 @@
       <c r="G93">
         <v>918</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -11829,8 +14220,14 @@
       <c r="G94">
         <v>359</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>126</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -11855,8 +14252,14 @@
       <c r="G95">
         <v>1795</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -11881,8 +14284,14 @@
       <c r="G96">
         <v>425</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -11907,8 +14316,14 @@
       <c r="G97">
         <v>753</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -11933,8 +14348,14 @@
       <c r="G98">
         <v>4856</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>127</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -11959,8 +14380,14 @@
       <c r="G99">
         <v>341</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -11984,6 +14411,12 @@
       </c>
       <c r="G100">
         <v>539</v>
+      </c>
+      <c r="H100" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Data Exploration/Datasets/DisabledPop.xlsx
+++ b/Data Exploration/Datasets/DisabledPop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahanson\Documents\GitHub\DHR-Disabilities\Data Exploration\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDA6EE-4ABE-47F7-90E2-88F5CFE0ECCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABDD08-1DE2-4B5F-8AEF-33AAF8FD2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="630" windowWidth="24885" windowHeight="16335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26835" yWindow="-3120" windowWidth="25485" windowHeight="16335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="140">
   <si>
     <t>County</t>
   </si>
@@ -448,6 +448,12 @@
   <si>
     <t>estimate_18 to 34 years dis</t>
   </si>
+  <si>
+    <t>35 to 64 years_bh</t>
+  </si>
+  <si>
+    <t>18 to 34 years_bh</t>
+  </si>
 </sst>
 </file>
 
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,14 +945,14 @@
         <v>65</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K33" si="1">L2/B2*100</f>
+        <f>L2/B2*100</f>
         <v>1.3599537037037037</v>
       </c>
       <c r="L2">
         <v>94</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M33" si="2">N2/B2*100</f>
+        <f t="shared" ref="M2:M33" si="1">N2/B2*100</f>
         <v>6.7274305555555554</v>
       </c>
       <c r="N2">
@@ -1028,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="3">J3/B3*100</f>
+        <f t="shared" ref="I3:I66" si="2">J3/B3*100</f>
         <v>2.7987685418415897E-2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K2:K33" si="3">L3/B3*100</f>
         <v>1.4273719563392109</v>
       </c>
       <c r="L3">
         <v>51</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.058214385670305</v>
       </c>
       <c r="N3">
@@ -1124,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52604282433133287</v>
       </c>
       <c r="J4">
         <v>71</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1928576720752759</v>
       </c>
       <c r="L4">
         <v>161</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0747573534859596</v>
       </c>
       <c r="N4">
@@ -1220,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9492073762536397</v>
       </c>
       <c r="J5">
         <v>241</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98673568424458102</v>
       </c>
       <c r="L5">
         <v>122</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.2468456810093826</v>
       </c>
       <c r="N5">
@@ -1316,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.27741816164231553</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77677085259848344</v>
       </c>
       <c r="L6">
         <v>42</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7333086739411874</v>
       </c>
       <c r="N6">
@@ -1412,21 +1418,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60036337783395222</v>
       </c>
       <c r="J7">
         <v>152</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0782842246622955</v>
       </c>
       <c r="L7">
         <v>273</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5350343629038625</v>
       </c>
       <c r="N7">
@@ -1508,21 +1514,21 @@
         <v>79</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0966877273597548</v>
       </c>
       <c r="J8">
         <v>1432</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7499521347884357</v>
       </c>
       <c r="L8">
         <v>2285</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9350947731188972</v>
       </c>
       <c r="N8">
@@ -1604,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70005385029617662</v>
       </c>
       <c r="J9">
         <v>182</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6385875836602817</v>
       </c>
       <c r="L9">
         <v>426</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7503654127240562</v>
       </c>
       <c r="N9">
@@ -1700,21 +1706,21 @@
         <v>27</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3925434157794598</v>
       </c>
       <c r="J10">
         <v>344</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2265716714569082</v>
       </c>
       <c r="L10">
         <v>303</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.242521151277173</v>
       </c>
       <c r="N10">
@@ -1796,21 +1802,21 @@
         <v>13</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.93654434250764529</v>
       </c>
       <c r="J11">
         <v>196</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1563455657492354</v>
       </c>
       <c r="L11">
         <v>242</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1379969418960245</v>
       </c>
       <c r="N11">
@@ -1892,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.91482008538320803</v>
       </c>
       <c r="J12">
         <v>180</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0063020939215288</v>
       </c>
       <c r="L12">
         <v>198</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2323643016873351</v>
       </c>
       <c r="N12">
@@ -1988,21 +1994,21 @@
         <v>6</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.84116080190663123</v>
       </c>
       <c r="J13">
         <v>120</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5070797700827141</v>
       </c>
       <c r="L13">
         <v>215</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9254170755642788</v>
       </c>
       <c r="N13">
@@ -2084,21 +2090,21 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.87258082559570416</v>
       </c>
       <c r="J14">
         <v>78</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55934668307416935</v>
       </c>
       <c r="L14">
         <v>50</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5307081329007719</v>
       </c>
       <c r="N14">
@@ -2180,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61513638884687138</v>
       </c>
       <c r="J15">
         <v>122</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91262038017445679</v>
       </c>
       <c r="L15">
         <v>181</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3210810265718758</v>
       </c>
       <c r="N15">
@@ -2276,21 +2282,21 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8001255098839033</v>
       </c>
       <c r="J16">
         <v>102</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5453404455600879</v>
       </c>
       <c r="L16">
         <v>197</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.243802949482272</v>
       </c>
       <c r="N16">
@@ -2372,21 +2378,21 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8938853852481492</v>
       </c>
       <c r="J17">
         <v>163</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.78969015629284345</v>
       </c>
       <c r="L17">
         <v>144</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1074856046065262</v>
       </c>
       <c r="N17">
@@ -2468,21 +2474,21 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.74091664687722636</v>
       </c>
       <c r="J18">
         <v>312</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2681073379244834</v>
       </c>
       <c r="L18">
         <v>534</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3882688197577773</v>
       </c>
       <c r="N18">
@@ -2564,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61248743029527386</v>
       </c>
       <c r="J19">
         <v>67</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64905384404424538</v>
       </c>
       <c r="L19">
         <v>71</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2051375811317309</v>
       </c>
       <c r="N19">
@@ -2660,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6390672524501522</v>
       </c>
       <c r="J20">
         <v>194</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2673200405542413</v>
       </c>
       <c r="L20">
         <v>150</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9594457587022642</v>
       </c>
       <c r="N20">
@@ -2756,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.80216802168021684</v>
       </c>
       <c r="J21">
         <v>74</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5718157181571817</v>
       </c>
       <c r="L21">
         <v>145</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.037940379403794</v>
       </c>
       <c r="N21">
@@ -2852,21 +2858,21 @@
         <v>8</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2948645420830975</v>
       </c>
       <c r="J22">
         <v>206</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8982965616946383</v>
       </c>
       <c r="L22">
         <v>302</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8274561568923247</v>
       </c>
       <c r="N22">
@@ -2948,21 +2954,21 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.78476630121177138</v>
       </c>
       <c r="J23">
         <v>136</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.75591459896133872</v>
       </c>
       <c r="L23">
         <v>131</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3144835545297173</v>
       </c>
       <c r="N23">
@@ -3044,21 +3050,21 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2333412532129511</v>
       </c>
       <c r="J24">
         <v>571</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6394150808907704</v>
       </c>
       <c r="L24">
         <v>759</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0586431086247492</v>
       </c>
       <c r="N24">
@@ -3140,21 +3146,21 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7531348428121472</v>
       </c>
       <c r="J25">
         <v>295</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6521067332263624</v>
       </c>
       <c r="L25">
         <v>278</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3723182979734947</v>
       </c>
       <c r="N25">
@@ -3236,21 +3242,21 @@
         <v>11</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.34020034020034023</v>
       </c>
       <c r="J26">
         <v>306</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70708306002423649</v>
       </c>
       <c r="L26">
         <v>636</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7382792088674441</v>
       </c>
       <c r="N26">
@@ -3332,21 +3338,21 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3865404125803178</v>
       </c>
       <c r="J27">
         <v>123</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1949047458009243</v>
       </c>
       <c r="L27">
         <v>106</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1112614135948595</v>
       </c>
       <c r="N27">
@@ -3428,21 +3434,21 @@
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.79568788501026688</v>
       </c>
       <c r="J28">
         <v>62</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1303901437371664</v>
       </c>
       <c r="L28">
         <v>166</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7227926078028748</v>
       </c>
       <c r="N28">
@@ -3524,21 +3530,21 @@
         <v>5</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.26551805522775551</v>
       </c>
       <c r="J29">
         <v>45</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.050271418456455</v>
       </c>
       <c r="L29">
         <v>178</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.233419872551333</v>
       </c>
       <c r="N29">
@@ -3620,21 +3626,21 @@
         <v>163</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3808946132204527</v>
       </c>
       <c r="J30">
         <v>535</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8971168985365099</v>
       </c>
       <c r="L30">
         <v>735</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3687117672869942</v>
       </c>
       <c r="N30">
@@ -3716,21 +3722,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.50909942067996961</v>
       </c>
       <c r="J31">
         <v>87</v>
       </c>
       <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7373164023640939</v>
+      </c>
+      <c r="L31">
+        <v>126</v>
+      </c>
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>0.7373164023640939</v>
-      </c>
-      <c r="L31">
-        <v>126</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="2"/>
         <v>5.2021768389022176</v>
       </c>
       <c r="N31">
@@ -3812,21 +3818,21 @@
         <v>27</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.71886232223784963</v>
       </c>
       <c r="J32">
         <v>690</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5169036828671145</v>
       </c>
       <c r="L32">
         <v>1456</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7735062770224514</v>
       </c>
       <c r="N32">
@@ -3908,21 +3914,21 @@
         <v>28</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2929605481268649</v>
       </c>
       <c r="J33">
         <v>117</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1880870814454636</v>
       </c>
       <c r="L33">
         <v>198</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.1497403027958892</v>
       </c>
       <c r="N33">
@@ -4004,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.91286307053941917</v>
       </c>
       <c r="J34">
@@ -4100,7 +4106,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8243940175348119</v>
       </c>
       <c r="J35">
@@ -4196,7 +4202,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13064013666968144</v>
       </c>
       <c r="J36">
@@ -4292,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51546391752577314</v>
       </c>
       <c r="J37">
@@ -4388,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99761931753769417</v>
       </c>
       <c r="J38">
@@ -4484,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65273072791869791</v>
       </c>
       <c r="J39">
@@ -4580,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7351942663145981</v>
       </c>
       <c r="J40">
@@ -4676,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61816452686638135</v>
       </c>
       <c r="J41">
@@ -4772,7 +4778,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.212695405021317</v>
       </c>
       <c r="J42">
@@ -4868,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2023191943851084</v>
       </c>
       <c r="J43">
@@ -4964,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56488991888760132</v>
       </c>
       <c r="J44">
@@ -5060,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2784850754252701</v>
       </c>
       <c r="J45">
@@ -5156,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.37698192704290945</v>
       </c>
       <c r="J46">
@@ -5252,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48868585998087749</v>
       </c>
       <c r="J47">
@@ -5348,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57812036762525942</v>
       </c>
       <c r="J48">
@@ -5444,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.91870123332494324</v>
       </c>
       <c r="J49">
@@ -5540,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.74677528852681607</v>
       </c>
       <c r="J50">
@@ -5636,7 +5642,7 @@
         <v>18</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.79851020005078865</v>
       </c>
       <c r="J51">
@@ -5732,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.85004722484582473</v>
       </c>
       <c r="J52">
@@ -5828,7 +5834,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.38672403855176207</v>
       </c>
       <c r="J53">
@@ -5924,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3473207857657103</v>
       </c>
       <c r="J54">
@@ -6020,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3728611221647433</v>
       </c>
       <c r="J55">
@@ -6116,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99733588359860648</v>
       </c>
       <c r="J56">
@@ -6212,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64421579702622656</v>
       </c>
       <c r="J57">
@@ -6308,7 +6314,7 @@
         <v>69</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.76672374250600184</v>
       </c>
       <c r="J58">
@@ -6404,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.74579354251932706</v>
       </c>
       <c r="J59">
@@ -6500,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4444707553871654</v>
       </c>
       <c r="J60">
@@ -6596,7 +6602,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.78171978352375227</v>
       </c>
       <c r="J61">
@@ -6692,7 +6698,7 @@
         <v>32</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.98805578137702454</v>
       </c>
       <c r="J62">
@@ -6788,7 +6794,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3969890139698902</v>
       </c>
       <c r="J63">
@@ -6884,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.82810082810082808</v>
       </c>
       <c r="J64">
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.88009939946158622</v>
       </c>
       <c r="J65">
@@ -7076,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51560379918588872</v>
       </c>
       <c r="J66">
@@ -10422,22 +10428,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8633E9C-FFE3-416F-B8F5-9046DC0E219A}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="8" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10448,2595 +10459,3393 @@
         <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>1050</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <f>F2/B2*100</f>
+        <v>8.9523809523809526</v>
+      </c>
+      <c r="E2">
         <v>7.4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>94</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <f>I2/B2*100</f>
+        <v>44.285714285714285</v>
+      </c>
+      <c r="H2">
         <v>17.3</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>465</v>
       </c>
-      <c r="H2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>511</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D66" si="0">F3/B3*100</f>
+        <v>9.9804305283757326</v>
+      </c>
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>51</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">I3/B3*100</f>
+        <v>28.37573385518591</v>
+      </c>
+      <c r="H3">
         <v>10.4</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>145</v>
       </c>
-      <c r="H3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>1541</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>10.44776119402985</v>
+      </c>
+      <c r="E4">
         <v>6.9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>161</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>26.930564568462039</v>
+      </c>
+      <c r="H4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>415</v>
       </c>
-      <c r="H4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <v>2259</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4006197432492256</v>
+      </c>
+      <c r="E5">
         <v>5.9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>122</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>39.663567950420543</v>
+      </c>
+      <c r="H5">
         <v>19.100000000000001</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>896</v>
       </c>
-      <c r="H5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>707</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9405940594059405</v>
+      </c>
+      <c r="E6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>43.847241867043849</v>
+      </c>
+      <c r="H6">
         <v>14.5</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>310</v>
       </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>2767</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8662811709432603</v>
+      </c>
+      <c r="E7">
         <v>6.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>273</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>32.345500542103359</v>
+      </c>
+      <c r="H7">
         <v>8.6</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>895</v>
       </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
         <v>17109</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>13.355543865801625</v>
+      </c>
+      <c r="E8">
         <v>6.3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2285</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>37.664387164650179</v>
+      </c>
+      <c r="H8">
         <v>14.5</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>6444</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>128</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>3374</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>12.625963248369887</v>
+      </c>
+      <c r="E9">
         <v>8.1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>426</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>36.603438055720211</v>
+      </c>
+      <c r="H9">
         <v>11.7</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1235</v>
       </c>
-      <c r="H9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>2734</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>11.082662765179224</v>
+      </c>
+      <c r="E10">
         <v>5.5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>303</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>29.297732260424286</v>
+      </c>
+      <c r="H10">
         <v>8.9</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>801</v>
       </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
         <v>2620</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2366412213740468</v>
+      </c>
+      <c r="E11">
         <v>6.4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>242</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>33.053435114503813</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>866</v>
       </c>
-      <c r="H11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
         <v>1934</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>10.237849017580144</v>
+      </c>
+      <c r="E12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>198</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>32.885211995863493</v>
+      </c>
+      <c r="H12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>636</v>
       </c>
-      <c r="H12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13">
         <v>1647</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>13.05403764420158</v>
+      </c>
+      <c r="E13">
         <v>8.9</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>215</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>34.001214329083176</v>
+      </c>
+      <c r="H13">
         <v>10.1</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>560</v>
       </c>
-      <c r="H13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
         <v>1096</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.562043795620438</v>
+      </c>
+      <c r="E14">
         <v>3.3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>36.952554744525543</v>
+      </c>
+      <c r="H14">
         <v>12.1</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>405</v>
       </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
         <v>2160</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3796296296296298</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>181</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>39.675925925925924</v>
+      </c>
+      <c r="H15">
         <v>11.2</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>857</v>
       </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16">
         <v>1631</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>12.078479460453709</v>
+      </c>
+      <c r="E16">
         <v>9.4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>197</v>
       </c>
-      <c r="F16">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>33.169834457388106</v>
+      </c>
+      <c r="H16">
         <v>10.8</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>541</v>
       </c>
-      <c r="H16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
         <v>1920</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>144</v>
       </c>
-      <c r="F17">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>39.010416666666664</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>749</v>
       </c>
-      <c r="H17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
         <v>5841</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1422701592193114</v>
+      </c>
+      <c r="E18">
         <v>6.4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>534</v>
       </c>
-      <c r="F18">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>38.846087998630374</v>
+      </c>
+      <c r="H18">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2269</v>
       </c>
-      <c r="H18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
         <v>1184</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.996621621621621</v>
+      </c>
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>71</v>
       </c>
-      <c r="F19">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>38.851351351351347</v>
+      </c>
+      <c r="H19">
         <v>10.7</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>460</v>
       </c>
-      <c r="H19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
         <v>1606</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.339975093399751</v>
+      </c>
+      <c r="E20">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>150</v>
       </c>
-      <c r="F20">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>36.550435865504362</v>
+      </c>
+      <c r="H20">
         <v>12.8</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>587</v>
       </c>
-      <c r="H20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
         <v>1688</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5900473933649284</v>
+      </c>
+      <c r="E21">
         <v>9.1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>145</v>
       </c>
-      <c r="F21">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>54.857819905213269</v>
+      </c>
+      <c r="H21">
         <v>24.9</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>926</v>
       </c>
-      <c r="H21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
         <v>2451</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>12.321501427988576</v>
+      </c>
+      <c r="E22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>302</v>
       </c>
-      <c r="F22">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>31.334149326805381</v>
+      </c>
+      <c r="H22">
         <v>12.9</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>768</v>
       </c>
-      <c r="H22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
         <v>2430</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3909465020576137</v>
+      </c>
+      <c r="E23">
         <v>4.5</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>131</v>
       </c>
-      <c r="F23">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>37.901234567901234</v>
+      </c>
+      <c r="H23">
         <v>13.7</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>921</v>
       </c>
-      <c r="H23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
         <v>6526</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>11.630401471038923</v>
+      </c>
+      <c r="E24">
         <v>8.9</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>759</v>
       </c>
-      <c r="F24">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>35.887220349371745</v>
+      </c>
+      <c r="H24">
         <v>12.7</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>2342</v>
       </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
         <v>2549</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>10.90623774029031</v>
+      </c>
+      <c r="E25">
         <v>6.8</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>278</v>
       </c>
-      <c r="F25">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>35.464888191447628</v>
+      </c>
+      <c r="H25">
         <v>15.6</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>904</v>
       </c>
-      <c r="H25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26">
         <v>6709</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4798032493665225</v>
+      </c>
+      <c r="E26">
         <v>3.3</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>636</v>
       </c>
-      <c r="F26">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>36.711879564763748</v>
+      </c>
+      <c r="H26">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>2463</v>
       </c>
-      <c r="H26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
         <v>1032</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>10.271317829457365</v>
+      </c>
+      <c r="E27">
         <v>6.3</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>106</v>
       </c>
-      <c r="F27">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>26.744186046511626</v>
+      </c>
+      <c r="H27">
         <v>9</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>276</v>
       </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
         <v>1145</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>14.497816593886462</v>
+      </c>
+      <c r="E28">
         <v>7.8</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>166</v>
       </c>
-      <c r="F28">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>32.139737991266379</v>
+      </c>
+      <c r="H28">
         <v>15</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>368</v>
       </c>
-      <c r="H28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29">
         <v>1785</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9719887955182074</v>
+      </c>
+      <c r="E29">
         <v>6.2</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>178</v>
       </c>
-      <c r="F29">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>30.700280112044819</v>
+      </c>
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>548</v>
       </c>
-      <c r="H29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
         <v>6501</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>11.305952930318412</v>
+      </c>
+      <c r="E30">
         <v>10.1</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>735</v>
       </c>
-      <c r="F30">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>31.995077680356871</v>
+      </c>
+      <c r="H30">
         <v>14.1</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>2080</v>
       </c>
-      <c r="H30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31">
         <v>2507</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0259274032708419</v>
+      </c>
+      <c r="E31">
         <v>4.5</v>
       </c>
-      <c r="E31">
-        <v>126</v>
-      </c>
       <c r="F31">
+        <v>126</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>35.460710011966498</v>
+      </c>
+      <c r="H31">
         <v>13.3</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>889</v>
       </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32">
         <v>10709</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>13.596040713418619</v>
+      </c>
+      <c r="E32">
         <v>6.7</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1456</v>
       </c>
-      <c r="F32">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>33.822018862638906</v>
+      </c>
+      <c r="H32">
         <v>10.199999999999999</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>3622</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>128</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
       <c r="B33">
         <v>1507</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>13.138686131386862</v>
+      </c>
+      <c r="E33">
         <v>10.7</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>198</v>
       </c>
-      <c r="F33">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>30.922362309223622</v>
+      </c>
+      <c r="H33">
         <v>13.2</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>466</v>
       </c>
-      <c r="H33" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34">
         <v>3048</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4475065616797895</v>
+      </c>
+      <c r="E34">
         <v>5.9</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>227</v>
       </c>
-      <c r="F34">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>37.335958005249346</v>
+      </c>
+      <c r="H34">
         <v>15.5</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>1138</v>
       </c>
-      <c r="H34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35">
         <v>2458</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>12.571196094385678</v>
+      </c>
+      <c r="E35">
         <v>11.1</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>309</v>
       </c>
-      <c r="F35">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>29.373474369406022</v>
+      </c>
+      <c r="H35">
         <v>12.2</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>722</v>
       </c>
-      <c r="H35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36">
         <v>796</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9145728643216078</v>
+      </c>
+      <c r="E36">
         <v>3.5</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>63</v>
       </c>
-      <c r="F36">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>35.427135678391956</v>
+      </c>
+      <c r="H36">
         <v>7.5</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>282</v>
       </c>
-      <c r="H36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37">
         <v>895</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2625698324022352</v>
+      </c>
+      <c r="E37">
         <v>5.6</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>65</v>
       </c>
-      <c r="F37">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>40.782122905027933</v>
+      </c>
+      <c r="H37">
         <v>13.4</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>365</v>
       </c>
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38">
         <v>1509</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5427435387673949</v>
+      </c>
+      <c r="E38">
         <v>9.5</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>144</v>
       </c>
-      <c r="F38">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>31.941683233929759</v>
+      </c>
+      <c r="H38">
         <v>14.2</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>482</v>
       </c>
-      <c r="H38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39">
         <v>1221</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>11.547911547911548</v>
+      </c>
+      <c r="E39">
         <v>6.4</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>141</v>
       </c>
-      <c r="F39">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>26.371826371826373</v>
+      </c>
+      <c r="H39">
         <v>6.9</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>322</v>
       </c>
-      <c r="H39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="B40">
         <v>1285</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8015564202334633</v>
+      </c>
+      <c r="E40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>36</v>
       </c>
-      <c r="F40">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>28.560311284046691</v>
+      </c>
+      <c r="H40">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>367</v>
       </c>
-      <c r="H40" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
       <c r="B41">
         <v>1687</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4611736810906946</v>
+      </c>
+      <c r="E41">
         <v>4.2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>109</v>
       </c>
-      <c r="F41">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>41.967990515708358</v>
+      </c>
+      <c r="H41">
         <v>12.2</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>708</v>
       </c>
-      <c r="H41" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42">
         <v>1468</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3569482288828345</v>
+      </c>
+      <c r="E42">
         <v>5.8</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>108</v>
       </c>
-      <c r="F42">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>36.03542234332425</v>
+      </c>
+      <c r="H42">
         <v>12.8</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>529</v>
       </c>
-      <c r="H42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43">
         <v>2060</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>10.291262135922331</v>
+      </c>
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>212</v>
       </c>
-      <c r="F43">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>32.76699029126214</v>
+      </c>
+      <c r="H43">
         <v>10.4</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>675</v>
       </c>
-      <c r="H43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44">
         <v>1766</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2865232163080407</v>
+      </c>
+      <c r="E44">
         <v>6.6</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>164</v>
       </c>
-      <c r="F44">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>35.447338618346549</v>
+      </c>
+      <c r="H44">
         <v>11.2</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>626</v>
       </c>
-      <c r="H44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
         <v>2670</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1423220973782771</v>
+      </c>
+      <c r="E45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>164</v>
       </c>
-      <c r="F45">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>42.434456928838955</v>
+      </c>
+      <c r="H45">
         <v>16.3</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>1133</v>
       </c>
-      <c r="H45" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46">
         <v>835</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>10.658682634730539</v>
+      </c>
+      <c r="E46">
         <v>5.5</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>89</v>
       </c>
-      <c r="F46">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>31.017964071856284</v>
+      </c>
+      <c r="H46">
         <v>7.6</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>259</v>
       </c>
-      <c r="H46" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
       <c r="B47">
         <v>1349</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0800593031875465</v>
+      </c>
+      <c r="E47">
         <v>6.8</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>109</v>
       </c>
-      <c r="F47">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>44.180874722016306</v>
+      </c>
+      <c r="H47">
         <v>16.3</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>596</v>
       </c>
-      <c r="H47" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48">
         <v>822</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>13.138686131386862</v>
+      </c>
+      <c r="E48">
         <v>9.1</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>108</v>
       </c>
-      <c r="F48">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>29.197080291970799</v>
+      </c>
+      <c r="H48">
         <v>9.6</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>240</v>
       </c>
-      <c r="H48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
       <c r="B49">
         <v>1888</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>10.116525423728813</v>
+      </c>
+      <c r="E49">
         <v>6.7</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>191</v>
       </c>
-      <c r="F49">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>31.567796610169491</v>
+      </c>
+      <c r="H49">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>596</v>
       </c>
-      <c r="H49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50">
         <v>2239</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>13.220187583742742</v>
+      </c>
+      <c r="E50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>296</v>
       </c>
-      <c r="F50">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>28.807503349709691</v>
+      </c>
+      <c r="H50">
         <v>8.5</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>645</v>
       </c>
-      <c r="H50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
       <c r="B51">
         <v>4548</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4098504837291124</v>
+      </c>
+      <c r="E51">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>337</v>
       </c>
-      <c r="F51">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>36.829375549692173</v>
+      </c>
+      <c r="H51">
         <v>12.1</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>1675</v>
       </c>
-      <c r="H51" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
       <c r="B52">
         <v>2349</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>12.345679012345679</v>
+      </c>
+      <c r="E52">
         <v>7.4</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>290</v>
       </c>
-      <c r="F52">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>44.997871434653042</v>
+      </c>
+      <c r="H52">
         <v>16</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>1057</v>
       </c>
-      <c r="H52" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
       <c r="B53">
         <v>11307</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>22.800035376315556</v>
+      </c>
+      <c r="E53">
         <v>4.7</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2578</v>
       </c>
-      <c r="F53">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>30.529760325462103</v>
+      </c>
+      <c r="H53">
         <v>7.2</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>3452</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>128</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
       <c r="B54">
         <v>2406</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>13.507896924355778</v>
+      </c>
+      <c r="E54">
         <v>9.9</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>325</v>
       </c>
-      <c r="F54">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>29.301745635910226</v>
+      </c>
+      <c r="H54">
         <v>9.1</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>705</v>
       </c>
-      <c r="H54" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
       <c r="B55">
         <v>1653</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4089534180278278</v>
+      </c>
+      <c r="E55">
         <v>7.8</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>139</v>
       </c>
-      <c r="F55">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>35.934664246823957</v>
+      </c>
+      <c r="H55">
         <v>15.5</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>594</v>
       </c>
-      <c r="H55" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
+        <v>127</v>
+      </c>
+      <c r="K55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
       <c r="B56">
         <v>2472</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1715210355987047</v>
+      </c>
+      <c r="E56">
         <v>7.4</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>202</v>
       </c>
-      <c r="F56">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>37.823624595469255</v>
+      </c>
+      <c r="H56">
         <v>17.2</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>935</v>
       </c>
-      <c r="H56" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
       <c r="B57">
         <v>4983</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3249046758980532</v>
+      </c>
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>365</v>
       </c>
-      <c r="F57">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>44.009632751354602</v>
+      </c>
+      <c r="H57">
         <v>17</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>2193</v>
       </c>
-      <c r="H57" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58">
         <v>22410</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>15.595716198125837</v>
+      </c>
+      <c r="E58">
         <v>6.9</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>3495</v>
       </c>
-      <c r="F58">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>32.605979473449352</v>
+      </c>
+      <c r="H58">
         <v>8.5</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>7307</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>128</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59">
         <v>1295</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4131274131274125</v>
+      </c>
+      <c r="E59">
         <v>4.3</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>96</v>
       </c>
-      <c r="F59">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>27.181467181467184</v>
+      </c>
+      <c r="H59">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>352</v>
       </c>
-      <c r="H59" t="s">
-        <v>126</v>
-      </c>
-      <c r="I59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60">
         <v>1514</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2655217965653902</v>
+      </c>
+      <c r="E60">
         <v>7.4</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>110</v>
       </c>
-      <c r="F60">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>35.138705416116252</v>
+      </c>
+      <c r="H60">
         <v>16.399999999999999</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>532</v>
       </c>
-      <c r="H60" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
       <c r="B61">
         <v>1274</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9654631083202512</v>
+      </c>
+      <c r="E61">
         <v>3.7</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>76</v>
       </c>
-      <c r="F61">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>35.949764521193096</v>
+      </c>
+      <c r="H61">
         <v>10.8</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>458</v>
       </c>
-      <c r="H61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62">
         <v>1586</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6834804539722565</v>
+      </c>
+      <c r="E62">
         <v>3.9</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>106</v>
       </c>
-      <c r="F62">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>28.121059268600252</v>
+      </c>
+      <c r="H62">
         <v>6.7</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>446</v>
       </c>
-      <c r="H62" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
       <c r="B63">
         <v>3103</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>11.601675797615211</v>
+      </c>
+      <c r="E63">
         <v>7.5</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>360</v>
       </c>
-      <c r="F63">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>30.261037705446341</v>
+      </c>
+      <c r="H63">
         <v>11.5</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>939</v>
       </c>
-      <c r="H63" t="s">
-        <v>126</v>
-      </c>
-      <c r="I63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
       <c r="B64">
         <v>4811</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>10.330492621076699</v>
+      </c>
+      <c r="E64">
         <v>7.1</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>497</v>
       </c>
-      <c r="F64">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>38.80690085221368</v>
+      </c>
+      <c r="H64">
         <v>14.8</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>1867</v>
       </c>
-      <c r="H64" t="s">
-        <v>127</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65">
         <v>4333</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>11.770136164320332</v>
+      </c>
+      <c r="E65">
         <v>6.4</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>510</v>
       </c>
-      <c r="F65">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>37.895222709439189</v>
+      </c>
+      <c r="H65">
         <v>11.4</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>1642</v>
       </c>
-      <c r="H65" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="B66">
         <v>2121</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5808580858085808</v>
+      </c>
+      <c r="E66">
         <v>7.4</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>182</v>
       </c>
-      <c r="F66">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>45.544554455445549</v>
+      </c>
+      <c r="H66">
         <v>15.9</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>966</v>
       </c>
-      <c r="H66" t="s">
-        <v>126</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
+        <v>126</v>
+      </c>
+      <c r="K66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67">
         <v>1275</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D100" si="2">F67/B67*100</f>
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="E67">
         <v>5.3</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>100</v>
       </c>
-      <c r="F67">
+      <c r="G67">
+        <f t="shared" ref="G67:G100" si="3">I67/B67*100</f>
+        <v>32.156862745098039</v>
+      </c>
+      <c r="H67">
         <v>10.6</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>410</v>
       </c>
-      <c r="H67" t="s">
-        <v>126</v>
-      </c>
-      <c r="I67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>126</v>
+      </c>
+      <c r="K67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68">
         <v>1308</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
+        <f t="shared" si="2"/>
+        <v>10.779816513761469</v>
+      </c>
+      <c r="E68">
         <v>9.9</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>141</v>
       </c>
-      <c r="F68">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>37.155963302752291</v>
+      </c>
+      <c r="H68">
         <v>15</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>486</v>
       </c>
-      <c r="H68" t="s">
-        <v>126</v>
-      </c>
-      <c r="I68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
       <c r="B69">
         <v>1019</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
+        <f t="shared" si="2"/>
+        <v>10.893032384690873</v>
+      </c>
+      <c r="E69">
         <v>7.9</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>111</v>
       </c>
-      <c r="F69">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>38.959764474975465</v>
+      </c>
+      <c r="H69">
         <v>13.3</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>397</v>
       </c>
-      <c r="H69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>126</v>
+      </c>
+      <c r="K69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70">
         <v>1386</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
+        <f t="shared" si="2"/>
+        <v>10.38961038961039</v>
+      </c>
+      <c r="E70">
         <v>8.5</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>144</v>
       </c>
-      <c r="F70">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>30.880230880230879</v>
+      </c>
+      <c r="H70">
         <v>11.2</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>428</v>
       </c>
-      <c r="H70" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>126</v>
+      </c>
+      <c r="K70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71">
         <v>4689</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
+        <f t="shared" si="2"/>
+        <v>10.684580934101087</v>
+      </c>
+      <c r="E71">
         <v>5.7</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>501</v>
       </c>
-      <c r="F71">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>35.210066112177437</v>
+      </c>
+      <c r="H71">
         <v>10.3</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>1651</v>
       </c>
-      <c r="H71" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
+        <v>127</v>
+      </c>
+      <c r="K71" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72">
         <v>1995</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
+        <f t="shared" si="2"/>
+        <v>13.483709273182956</v>
+      </c>
+      <c r="E72">
         <v>10.4</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>269</v>
       </c>
-      <c r="F72">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>35.989974937343362</v>
+      </c>
+      <c r="H72">
         <v>14.2</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>718</v>
       </c>
-      <c r="H72" t="s">
-        <v>126</v>
-      </c>
-      <c r="I72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>126</v>
+      </c>
+      <c r="K72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
       <c r="B73">
         <v>734</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
+        <f t="shared" si="2"/>
+        <v>4.223433242506812</v>
+      </c>
+      <c r="E73">
         <v>3.3</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>31</v>
       </c>
-      <c r="F73">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>38.01089918256131</v>
+      </c>
+      <c r="H73">
         <v>11.9</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>279</v>
       </c>
-      <c r="H73" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>126</v>
+      </c>
+      <c r="K73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74">
         <v>1955</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0306905370843999</v>
+      </c>
+      <c r="E74">
         <v>6.2</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>157</v>
       </c>
-      <c r="F74">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>36.163682864450124</v>
+      </c>
+      <c r="H74">
         <v>12.7</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>707</v>
       </c>
-      <c r="H74" t="s">
-        <v>126</v>
-      </c>
-      <c r="I74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>126</v>
+      </c>
+      <c r="K74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
       <c r="B75">
         <v>1352</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0236686390532554</v>
+      </c>
+      <c r="E75">
         <v>7.5</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>122</v>
       </c>
-      <c r="F75">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>37.278106508875744</v>
+      </c>
+      <c r="H75">
         <v>15.4</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>504</v>
       </c>
-      <c r="H75" t="s">
-        <v>126</v>
-      </c>
-      <c r="I75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>126</v>
+      </c>
+      <c r="K75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76">
         <v>2998</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
+        <f t="shared" si="2"/>
+        <v>7.871914609739826</v>
+      </c>
+      <c r="E76">
         <v>5.3</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>236</v>
       </c>
-      <c r="F76">
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>33.155436957971979</v>
+      </c>
+      <c r="H76">
         <v>10.199999999999999</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>994</v>
       </c>
-      <c r="H76" t="s">
-        <v>126</v>
-      </c>
-      <c r="I76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
       <c r="B77">
         <v>971</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3851699279093719</v>
+      </c>
+      <c r="E77">
         <v>5.5</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>62</v>
       </c>
-      <c r="F77">
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>35.427394438722963</v>
+      </c>
+      <c r="H77">
         <v>13.4</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>344</v>
       </c>
-      <c r="H77" t="s">
-        <v>126</v>
-      </c>
-      <c r="I77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
       <c r="B78">
         <v>53393</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
+        <f t="shared" si="2"/>
+        <v>16.286779165808252</v>
+      </c>
+      <c r="E78">
         <v>7.5</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>8696</v>
       </c>
-      <c r="F78">
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>38.666117281291555</v>
+      </c>
+      <c r="H78">
         <v>11.3</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>20645</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>128</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79">
         <v>13491</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2647691053294796</v>
+      </c>
+      <c r="E79">
         <v>5.9</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>1115</v>
       </c>
-      <c r="F79">
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>41.664813579423324</v>
+      </c>
+      <c r="H79">
         <v>15.7</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>5621</v>
       </c>
-      <c r="H79" t="s">
-        <v>127</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+      <c r="K79" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
       <c r="B80">
         <v>2072</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
+        <f t="shared" si="2"/>
+        <v>17.953667953667953</v>
+      </c>
+      <c r="E80">
         <v>8.1</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>372</v>
       </c>
-      <c r="F80">
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>29.826254826254829</v>
+      </c>
+      <c r="H80">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>618</v>
       </c>
-      <c r="H80" t="s">
-        <v>127</v>
-      </c>
-      <c r="I80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
       <c r="B81">
         <v>630</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6825396825396837</v>
+      </c>
+      <c r="E81">
         <v>7.6</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>61</v>
       </c>
-      <c r="F81">
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>25.555555555555554</v>
+      </c>
+      <c r="H81">
         <v>9.4</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>161</v>
       </c>
-      <c r="H81" t="s">
-        <v>126</v>
-      </c>
-      <c r="I81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>126</v>
+      </c>
+      <c r="K81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
       <c r="B82">
         <v>975</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="E82">
         <v>2.8</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>45</v>
       </c>
-      <c r="F82">
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>33.743589743589745</v>
+      </c>
+      <c r="H82">
         <v>9</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>329</v>
       </c>
-      <c r="H82" t="s">
-        <v>126</v>
-      </c>
-      <c r="I82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+      <c r="K82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
       <c r="B83">
         <v>18162</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
+        <f t="shared" si="2"/>
+        <v>12.338949454905848</v>
+      </c>
+      <c r="E83">
         <v>6.1</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>2241</v>
       </c>
-      <c r="F83">
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>38.646624821054949</v>
+      </c>
+      <c r="H83">
         <v>10.6</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>7019</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>128</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
       <c r="B84">
         <v>1329</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
+        <f t="shared" si="2"/>
+        <v>12.114371708051166</v>
+      </c>
+      <c r="E84">
         <v>8.4</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>161</v>
       </c>
-      <c r="F84">
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>31.452219714070729</v>
+      </c>
+      <c r="H84">
         <v>9.6</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>418</v>
       </c>
-      <c r="H84" t="s">
-        <v>126</v>
-      </c>
-      <c r="I84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+      <c r="K84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
       <c r="B85">
         <v>3175</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
+        <f t="shared" si="2"/>
+        <v>10.614173228346457</v>
+      </c>
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>337</v>
       </c>
-      <c r="F85">
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>27.181102362204722</v>
+      </c>
+      <c r="H85">
         <v>7.5</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>863</v>
       </c>
-      <c r="H85" t="s">
-        <v>127</v>
-      </c>
-      <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+      <c r="K85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
       <c r="B86">
         <v>7971</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
+        <f t="shared" si="2"/>
+        <v>28.290051436457158</v>
+      </c>
+      <c r="E86">
         <v>5.3</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>2255</v>
       </c>
-      <c r="F86">
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>28.026596411993477</v>
+      </c>
+      <c r="H86">
         <v>8.4</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>2234</v>
       </c>
-      <c r="H86" t="s">
-        <v>127</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
+        <v>127</v>
+      </c>
+      <c r="K86" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
       <c r="B87">
         <v>1773</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
+        <f t="shared" si="2"/>
+        <v>11.6751269035533</v>
+      </c>
+      <c r="E87">
         <v>6.7</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>207</v>
       </c>
-      <c r="F87">
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>31.020868584320361</v>
+      </c>
+      <c r="H87">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>550</v>
       </c>
-      <c r="H87" t="s">
-        <v>127</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+      <c r="K87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
       <c r="B88">
         <v>861</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9883855981416954</v>
+      </c>
+      <c r="E88">
         <v>7.9</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>86</v>
       </c>
-      <c r="F88">
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>36.933797909407666</v>
+      </c>
+      <c r="H88">
         <v>14.3</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>318</v>
       </c>
-      <c r="H88" t="s">
-        <v>126</v>
-      </c>
-      <c r="I88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+      <c r="K88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
       <c r="B89">
         <v>1826</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5432639649507127</v>
+      </c>
+      <c r="E89">
         <v>6.1</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>156</v>
       </c>
-      <c r="F89">
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>47.20700985761227</v>
+      </c>
+      <c r="H89">
         <v>19.2</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>862</v>
       </c>
-      <c r="H89" t="s">
-        <v>126</v>
-      </c>
-      <c r="I89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+      <c r="K89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
       <c r="B90">
         <v>1109</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6726780883678991</v>
+      </c>
+      <c r="E90">
         <v>6.6</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>74</v>
       </c>
-      <c r="F90">
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>38.232642019837691</v>
+      </c>
+      <c r="H90">
         <v>15.4</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>424</v>
       </c>
-      <c r="H90" t="s">
-        <v>126</v>
-      </c>
-      <c r="I90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+      <c r="K90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91">
         <v>5415</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7506925207756243</v>
+      </c>
+      <c r="E91">
         <v>7.1</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>528</v>
       </c>
-      <c r="F91">
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>39.649122807017548</v>
+      </c>
+      <c r="H91">
         <v>16.100000000000001</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>2147</v>
       </c>
-      <c r="H91" t="s">
-        <v>127</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+      <c r="K91" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
       <c r="B92">
         <v>5353</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
+        <f t="shared" si="2"/>
+        <v>12.404259293853915</v>
+      </c>
+      <c r="E92">
         <v>6.3</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>664</v>
       </c>
-      <c r="F92">
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>36.484214459181771</v>
+      </c>
+      <c r="H92">
         <v>9.9</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>1953</v>
       </c>
-      <c r="H92" t="s">
-        <v>127</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+      <c r="K92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93">
         <v>2528</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5443037974683538</v>
+      </c>
+      <c r="E93">
         <v>5.3</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>216</v>
       </c>
-      <c r="F93">
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>36.313291139240505</v>
+      </c>
+      <c r="H93">
         <v>11.1</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>918</v>
       </c>
-      <c r="H93" t="s">
-        <v>126</v>
-      </c>
-      <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+      <c r="K93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
       <c r="B94">
         <v>919</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3112078346028291</v>
+      </c>
+      <c r="E94">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>58</v>
       </c>
-      <c r="F94">
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>39.064200217627857</v>
+      </c>
+      <c r="H94">
         <v>15.9</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>359</v>
       </c>
-      <c r="H94" t="s">
-        <v>126</v>
-      </c>
-      <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+      <c r="K94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
       <c r="B95">
         <v>5070</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
+        <f t="shared" si="2"/>
+        <v>14.55621301775148</v>
+      </c>
+      <c r="E95">
         <v>9.5</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>738</v>
       </c>
-      <c r="F95">
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>35.404339250493095</v>
+      </c>
+      <c r="H95">
         <v>14.1</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>1795</v>
       </c>
-      <c r="H95" t="s">
-        <v>127</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+      <c r="K95" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
       <c r="B96">
         <v>1386</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
+        <f t="shared" si="2"/>
+        <v>18.759018759018758</v>
+      </c>
+      <c r="E96">
         <v>12.4</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>260</v>
       </c>
-      <c r="F96">
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>30.663780663780667</v>
+      </c>
+      <c r="H96">
         <v>11.2</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>425</v>
       </c>
-      <c r="H96" t="s">
-        <v>126</v>
-      </c>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+      <c r="K96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
       <c r="B97">
         <v>2345</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
+        <f t="shared" si="2"/>
+        <v>13.603411513859276</v>
+      </c>
+      <c r="E97">
         <v>6.4</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>319</v>
       </c>
-      <c r="F97">
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>32.110874200426437</v>
+      </c>
+      <c r="H97">
         <v>10.4</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>753</v>
       </c>
-      <c r="H97" t="s">
-        <v>126</v>
-      </c>
-      <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+      <c r="K97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
       <c r="B98">
         <v>12275</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
+        <f t="shared" si="2"/>
+        <v>11.731160896130346</v>
+      </c>
+      <c r="E98">
         <v>6.2</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1440</v>
       </c>
-      <c r="F98">
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>39.560081466395111</v>
+      </c>
+      <c r="H98">
         <v>13.2</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>4856</v>
       </c>
-      <c r="H98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+      <c r="K98" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
       <c r="B99">
         <v>1050</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E99">
         <v>7.6</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>105</v>
       </c>
-      <c r="F99">
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>32.476190476190474</v>
+      </c>
+      <c r="H99">
         <v>11.6</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>341</v>
       </c>
-      <c r="H99" t="s">
-        <v>126</v>
-      </c>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+      <c r="K99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
       <c r="B100">
         <v>1697</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
+        <f t="shared" si="2"/>
+        <v>12.080141426045964</v>
+      </c>
+      <c r="E100">
         <v>8.9</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>205</v>
       </c>
-      <c r="F100">
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>31.761932822628168</v>
+      </c>
+      <c r="H100">
         <v>12.1</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>539</v>
       </c>
-      <c r="H100" t="s">
-        <v>126</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
+        <v>126</v>
+      </c>
+      <c r="K100" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13050,12 +13859,18 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B100"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
